--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2171.534225994539</v>
+        <v>432135.3109729139</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2171.534225994539</v>
+        <v>432135.3109729139</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85752.51846139194</v>
+        <v>5860168.400006262</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85752.51846139194</v>
+        <v>5860168.400006262</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266734250.675618</v>
+        <v>47942985.41709857</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14568.24453729568</v>
+        <v>1299045.899049817</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26979.66751110327</v>
+        <v>2224675.290050017</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39404.11712221344</v>
+        <v>3150304.681050217</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52077.2053633199</v>
+        <v>4074950.387703259</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64750.29360442633</v>
+        <v>4999596.0943563</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77423.1161885203</v>
+        <v>5924220.654711148</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90088.02810888959</v>
+        <v>6850032.794473757</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102751.2551608004</v>
+        <v>7775509.645413133</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115567.6125066619</v>
+        <v>8655518.775676975</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128450.0106803992</v>
+        <v>9548670.030688079</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141332.4088541364</v>
+        <v>10441821.28569918</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>154214.8070278736</v>
+        <v>11334972.54071029</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>167097.2052016108</v>
+        <v>12228123.7957214</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179989.6120960743</v>
+        <v>13119552.08490864</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192883.5442056805</v>
+        <v>14010848.74417944</v>
       </c>
     </row>
   </sheetData>
